--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Auto_Fiets.xlsx
@@ -4077,7 +4077,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>13496999.30516677</v>
+        <v>13496999.30516678</v>
       </c>
       <c r="C219">
         <v>19760539.16643682</v>
@@ -4848,7 +4848,7 @@
         <v>1429204.718081046</v>
       </c>
       <c r="D264">
-        <v>2842618.853487255</v>
+        <v>2842618.853487256</v>
       </c>
       <c r="E264">
         <v>6471598.821886336</v>
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>6793.46752536198</v>
+        <v>6793.467525361981</v>
       </c>
       <c r="C418">
         <v>14668.19457239523</v>
       </c>
       <c r="D418">
-        <v>41559.97336366143</v>
+        <v>41559.97336366144</v>
       </c>
       <c r="E418">
         <v>63215.48507867389</v>
